--- a/Hardware/Basic/Bottom/Fyre-BASIC-BOTTOM-BOM.xlsx
+++ b/Hardware/Basic/Bottom/Fyre-BASIC-BOTTOM-BOM.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javier\Beca de maestría\Purdue\Designing a Smartwatch\Fyre\Hardware\Basic\Bottom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC5FC6-9A51-4A07-9C2F-922A6B6E1D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -896,87 +904,87 @@
     </xf>
   </cellXfs>
   <cellStyles count="82">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1316,28 +1324,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" style="1"/>
+    <col min="12" max="12" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>1.1271</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>1</f>
         <v>1</v>
@@ -1463,7 +1471,7 @@
         <v>0.1391</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>0.3982</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>2.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
